--- a/data/case1/18/V2_13.xlsx
+++ b/data/case1/18/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998774251375</v>
+        <v>0.99999999434018183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99844554738406943</v>
+        <v>0.99872453683934748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99367349835584062</v>
+        <v>0.99710000932592568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99599412549564414</v>
+        <v>1.0017670985283256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98513913698470312</v>
+        <v>0.99334510500897233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96279350960268439</v>
+        <v>0.97541515191171579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95971961592149335</v>
+        <v>0.97323035028612925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95375611537202454</v>
+        <v>0.96976597915979446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94727410626685971</v>
+        <v>0.96823358908851087</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94171198552781732</v>
+        <v>0.96763945003106833</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94097115581877477</v>
+        <v>0.96758307054981629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9398171273377236</v>
+        <v>0.96773241808385324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93604352189823747</v>
+        <v>0.97132087070902251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93512878746498318</v>
+        <v>0.97408886198162925</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.9356426569337406</v>
+        <v>0.9777792683766563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93684775040472434</v>
+        <v>0.9752732430363964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93494620139361029</v>
+        <v>0.9715657680343458</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93464849828774821</v>
+        <v>0.97045687345367904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99739244345879685</v>
+        <v>0.99764436283918378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99027589751662182</v>
+        <v>0.99052736647185635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98887749239770772</v>
+        <v>0.98912887916073822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98761301241024513</v>
+        <v>0.98786437605483224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98663948216532216</v>
+        <v>0.99006607522045764</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97361938432535533</v>
+        <v>0.97704608080685751</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96716253975922362</v>
+        <v>0.97058923093234495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96047872621811137</v>
+        <v>0.97298748410395186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95750040626352872</v>
+        <v>0.96985208242958976</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94690519964170483</v>
+        <v>0.95908294654280257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93969873517206692</v>
+        <v>0.95174753757021158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93633250093119402</v>
+        <v>0.94811541438038316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93950794014201378</v>
+        <v>0.95127671694848792</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.94184145568847188</v>
+        <v>0.94959744816381431</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.94132146725709531</v>
+        <v>0.94907743691377489</v>
       </c>
     </row>
   </sheetData>
